--- a/Completed/WJN21/WJN21_1.xlsx
+++ b/Completed/WJN21/WJN21_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Hookup\Pnuematic accessories\WJN21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Hookup\Completed\WJN21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C48DE0-F89F-42AA-B942-CC5C7F58E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233E56BD-DB6C-4C46-B6F7-10ECA9090526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,16 +39,40 @@
     <t>St</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>W</t>
@@ -76,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +109,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
